--- a/src/main/resources/盈亏分析模板.xlsx
+++ b/src/main/resources/盈亏分析模板.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbl\IdeaProjects\ExcelConvertTool\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\ExcelConvertToTemplate\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA111B-8FDB-4793-B1B7-38D4A0FDCBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC27A48-FE59-4A2A-AFE5-94EFD894831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{36972EAE-5B6C-493F-B4B4-6C859EF02C4F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{36972EAE-5B6C-493F-B4B4-6C859EF02C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,8 +32,142 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{1B257D7B-DADA-4137-8705-857261BA349E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+职工生日福利及其他</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M35" authorId="0" shapeId="0" xr:uid="{B4C8A667-6E5E-488A-8DA7-ACCD39C8FD49}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+发财树
+不包含材料成本及人工成本
+冲减9月份2021年-2022年团险费用，班组承担</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q35" authorId="0" shapeId="0" xr:uid="{497A7097-F758-4C03-8084-07887C67758F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+违章处理</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U35" authorId="0" shapeId="0" xr:uid="{4D97C3BB-295F-47E9-B6DD-3B35950DB899}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+减掉2月份招标成本28000
+减掉3月份材料成本1364
+“其他”科目的金额</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{0C7F9A54-F55A-4698-B620-E9769602BD67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+社保及资质挂靠</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <r>
       <rPr>
@@ -562,13 +697,177 @@
   <si>
     <t>{54010101}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙衡润装饰设计有限公司2021年12月份费用统计汇总表</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>固定费用</t>
+  </si>
+  <si>
+    <t>设计部</t>
+  </si>
+  <si>
+    <t>工程预算部</t>
+  </si>
+  <si>
+    <t>市场营销部</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>人力行政部</t>
+  </si>
+  <si>
+    <t>总经办</t>
+  </si>
+  <si>
+    <t>上期开累费用合计</t>
+  </si>
+  <si>
+    <t>本期费用合计</t>
+  </si>
+  <si>
+    <t>开累费用合计</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>职工薪酬</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>提成</t>
+  </si>
+  <si>
+    <t>社会保险费</t>
+  </si>
+  <si>
+    <t>职工福利费</t>
+  </si>
+  <si>
+    <t>办公费</t>
+  </si>
+  <si>
+    <t>租赁费</t>
+  </si>
+  <si>
+    <t>物业管理费</t>
+  </si>
+  <si>
+    <t>水电费</t>
+  </si>
+  <si>
+    <t>宽带费用</t>
+  </si>
+  <si>
+    <t>差旅费</t>
+  </si>
+  <si>
+    <t>修理费</t>
+  </si>
+  <si>
+    <t>劳动保护费</t>
+  </si>
+  <si>
+    <t>折旧费</t>
+  </si>
+  <si>
+    <t>业务宣传费</t>
+  </si>
+  <si>
+    <t>技术服务费</t>
+  </si>
+  <si>
+    <t>低值易耗品</t>
+  </si>
+  <si>
+    <t>日常交通费</t>
+  </si>
+  <si>
+    <t>燃料动力费</t>
+  </si>
+  <si>
+    <t>职工教育经费</t>
+  </si>
+  <si>
+    <t>保险费</t>
+  </si>
+  <si>
+    <t>税金</t>
+  </si>
+  <si>
+    <t>业务招待费</t>
+  </si>
+  <si>
+    <t>招待礼品</t>
+  </si>
+  <si>
+    <t>招待烟酒茶</t>
+  </si>
+  <si>
+    <t>招待餐费</t>
+  </si>
+  <si>
+    <t>招待住宿</t>
+  </si>
+  <si>
+    <t>其他招待</t>
+  </si>
+  <si>
+    <t>咨询费</t>
+  </si>
+  <si>
+    <t>招聘服务费</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>挂靠人员</t>
+  </si>
+  <si>
+    <t>费用合计</t>
+  </si>
+  <si>
+    <t>财务费用</t>
+  </si>
+  <si>
+    <t>手续费</t>
+  </si>
+  <si>
+    <t>利息</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +922,153 @@
       <name val="Noto Sans CJK JP Black"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -638,7 +1084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -687,13 +1133,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,9 +1266,141 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{0E7CBDD5-2865-485B-9494-88772226046A}"/>
+    <cellStyle name="常规_十天五标10月份经济活动分析表_项目部经济活动分析附表(2)" xfId="2" xr:uid="{74B31429-251C-41BA-A638-49595A5D79A2}"/>
+    <cellStyle name="千位分隔 2 9" xfId="3" xr:uid="{24555914-F95E-47F0-9C37-D9CEE701A44E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1088,13 +1714,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE61DE98-42CA-41A8-80A8-7A0CB055FEDA}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
+    <row r="1" spans="1:11" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1770,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1161,7 +1787,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="26.25">
       <c r="A4" s="4"/>
       <c r="B4" s="11" t="s">
         <v>13</v>
@@ -1195,7 +1821,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="26.25">
       <c r="A6" s="4"/>
       <c r="B6" s="11" t="s">
         <v>16</v>
@@ -1212,7 +1838,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="26.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1267,7 +1893,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="26.25">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1356,7 +1982,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="26.25">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -1392,7 +2018,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="26.25">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -1409,7 +2035,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="26.25">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -1426,7 +2052,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="26.25">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -1445,7 +2071,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="26.25">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -1464,7 +2090,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="26.25">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -1483,7 +2109,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="25.5">
+    <row r="22" spans="1:11" ht="26.25">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -1534,7 +2160,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="26.25">
       <c r="A25" s="6">
         <v>20</v>
       </c>
@@ -1566,7 +2192,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="26.25">
       <c r="A27" s="4"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
@@ -1581,7 +2207,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="26.25">
       <c r="A28" s="4"/>
       <c r="B28" s="11" t="s">
         <v>47</v>
@@ -1645,7 +2271,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="26.25">
       <c r="A32" s="6">
         <v>22</v>
       </c>
@@ -1662,7 +2288,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="26.25">
       <c r="A33" s="6">
         <v>23</v>
       </c>
@@ -1786,4 +2412,1432 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB0F35-FD45-4132-B7CE-C0F99D3941A1}">
+  <dimension ref="A1:Z41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15">
+      <c r="A1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+    </row>
+    <row r="2" spans="1:26" ht="15">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+    </row>
+    <row r="3" spans="1:26" ht="25.5">
+      <c r="A3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="33">
+        <v>12</v>
+      </c>
+      <c r="E4" s="33">
+        <v>4</v>
+      </c>
+      <c r="F4" s="33">
+        <v>6</v>
+      </c>
+      <c r="G4" s="33">
+        <v>2</v>
+      </c>
+      <c r="H4" s="33">
+        <v>3</v>
+      </c>
+      <c r="I4" s="33">
+        <v>3</v>
+      </c>
+      <c r="J4" s="34">
+        <f>SUM(D4:I4)</f>
+        <v>30</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="33">
+        <v>13</v>
+      </c>
+      <c r="M4" s="33">
+        <v>4</v>
+      </c>
+      <c r="N4" s="33">
+        <v>7</v>
+      </c>
+      <c r="O4" s="33">
+        <v>2</v>
+      </c>
+      <c r="P4" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>3</v>
+      </c>
+      <c r="R4" s="35">
+        <f>SUM(L4:Q4)</f>
+        <v>30</v>
+      </c>
+      <c r="S4" s="30"/>
+      <c r="T4" s="33">
+        <v>14</v>
+      </c>
+      <c r="U4" s="33">
+        <v>4</v>
+      </c>
+      <c r="V4" s="33">
+        <v>6</v>
+      </c>
+      <c r="W4" s="33">
+        <v>2</v>
+      </c>
+      <c r="X4" s="33">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="36"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="37">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+    </row>
+    <row r="6" spans="1:26" ht="26.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="51">
+        <v>2</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="51">
+        <v>3</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="51">
+        <v>4</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="51">
+        <v>5</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="51">
+        <v>6</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="51">
+        <v>7</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="51">
+        <v>8</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="40"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="51">
+        <v>9</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="51">
+        <v>10</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="51">
+        <v>11</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="51">
+        <v>12</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="51">
+        <v>13</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+    </row>
+    <row r="21" spans="1:26" ht="26.25">
+      <c r="A21" s="51">
+        <v>14</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="51">
+        <v>15</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="51">
+        <v>16</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="51">
+        <v>17</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="51">
+        <v>18</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="51">
+        <v>19</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="51">
+        <v>20</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="51"/>
+      <c r="B28" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="51"/>
+      <c r="B29" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+    </row>
+    <row r="30" spans="1:26" ht="26.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="51"/>
+      <c r="B31" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="51"/>
+      <c r="B32" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="51">
+        <v>21</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="40"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="51">
+        <v>22</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="40"/>
+    </row>
+    <row r="35" spans="1:26" ht="26.25">
+      <c r="A35" s="51">
+        <v>23</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="51">
+        <v>24</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="40"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="65">
+        <v>25</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="40"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="65"/>
+      <c r="B39" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="40"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="65"/>
+      <c r="B40" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="40"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A41:B41"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/盈亏分析模板.xlsx
+++ b/src/main/resources/盈亏分析模板.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\ExcelConvertToTemplate\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC27A48-FE59-4A2A-AFE5-94EFD894831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9A66D-ED83-4B0C-B7BF-34033312D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{36972EAE-5B6C-493F-B4B4-6C859EF02C4F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{36972EAE-5B6C-493F-B4B4-6C859EF02C4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1254,6 +1254,117 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
@@ -1270,112 +1381,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="13" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,17 +1389,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1711,6 +1711,1435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB0F35-FD45-4132-B7CE-C0F99D3941A1}">
+  <dimension ref="A1:Z41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <cols>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15">
+      <c r="A1" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+    </row>
+    <row r="2" spans="1:26" ht="15">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+    </row>
+    <row r="3" spans="1:26" ht="25.5">
+      <c r="A3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="27">
+        <v>12</v>
+      </c>
+      <c r="E4" s="27">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27">
+        <v>6</v>
+      </c>
+      <c r="G4" s="27">
+        <v>2</v>
+      </c>
+      <c r="H4" s="27">
+        <v>3</v>
+      </c>
+      <c r="I4" s="27">
+        <v>3</v>
+      </c>
+      <c r="J4" s="28">
+        <f>SUM(D4:I4)</f>
+        <v>30</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="27">
+        <v>13</v>
+      </c>
+      <c r="M4" s="27">
+        <v>4</v>
+      </c>
+      <c r="N4" s="27">
+        <v>7</v>
+      </c>
+      <c r="O4" s="27">
+        <v>2</v>
+      </c>
+      <c r="P4" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>3</v>
+      </c>
+      <c r="R4" s="29">
+        <f>SUM(L4:Q4)</f>
+        <v>30</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="27">
+        <v>14</v>
+      </c>
+      <c r="U4" s="27">
+        <v>4</v>
+      </c>
+      <c r="V4" s="27">
+        <v>6</v>
+      </c>
+      <c r="W4" s="27">
+        <v>2</v>
+      </c>
+      <c r="X4" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="27">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="30"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="31">
+        <v>1</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="45">
+        <v>2</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="45">
+        <v>3</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="45">
+        <v>4</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="45">
+        <v>5</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="45">
+        <v>6</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="45">
+        <v>7</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="45">
+        <v>8</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="34"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="45">
+        <v>9</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="45">
+        <v>10</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="45">
+        <v>11</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="45">
+        <v>12</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="45">
+        <v>13</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="45">
+        <v>14</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="45">
+        <v>15</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="45">
+        <v>16</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="45">
+        <v>17</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="45">
+        <v>18</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="45">
+        <v>19</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="45">
+        <v>20</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="45"/>
+      <c r="B28" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="45"/>
+      <c r="B29" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="45"/>
+      <c r="B30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="45"/>
+      <c r="B31" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="45"/>
+      <c r="B32" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="45">
+        <v>21</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="34"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="45">
+        <v>22</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="34"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="45">
+        <v>23</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="45">
+        <v>24</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="34"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="57">
+        <v>25</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="34"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="57"/>
+      <c r="B39" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="34"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="57"/>
+      <c r="B40" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="34"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="68"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="S2:Z2"/>
+    <mergeCell ref="A37:B37"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE61DE98-42CA-41A8-80A8-7A0CB055FEDA}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -2325,10 +3754,10 @@
       <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -2387,10 +3816,10 @@
       <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -2412,1432 +3841,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB0F35-FD45-4132-B7CE-C0F99D3941A1}">
-  <dimension ref="A1:Z41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
-  <cols>
-    <col min="4" max="4" width="15.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15">
-      <c r="A1" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-    </row>
-    <row r="2" spans="1:26" ht="15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-    </row>
-    <row r="3" spans="1:26" ht="25.5">
-      <c r="A3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z3" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="33">
-        <v>12</v>
-      </c>
-      <c r="E4" s="33">
-        <v>4</v>
-      </c>
-      <c r="F4" s="33">
-        <v>6</v>
-      </c>
-      <c r="G4" s="33">
-        <v>2</v>
-      </c>
-      <c r="H4" s="33">
-        <v>3</v>
-      </c>
-      <c r="I4" s="33">
-        <v>3</v>
-      </c>
-      <c r="J4" s="34">
-        <f>SUM(D4:I4)</f>
-        <v>30</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="33">
-        <v>13</v>
-      </c>
-      <c r="M4" s="33">
-        <v>4</v>
-      </c>
-      <c r="N4" s="33">
-        <v>7</v>
-      </c>
-      <c r="O4" s="33">
-        <v>2</v>
-      </c>
-      <c r="P4" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="33">
-        <v>3</v>
-      </c>
-      <c r="R4" s="35">
-        <f>SUM(L4:Q4)</f>
-        <v>30</v>
-      </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="33">
-        <v>14</v>
-      </c>
-      <c r="U4" s="33">
-        <v>4</v>
-      </c>
-      <c r="V4" s="33">
-        <v>6</v>
-      </c>
-      <c r="W4" s="33">
-        <v>2</v>
-      </c>
-      <c r="X4" s="33">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="33">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="36"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="37">
-        <v>1</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-    </row>
-    <row r="6" spans="1:26" ht="26.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="51">
-        <v>2</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="51">
-        <v>3</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="51">
-        <v>4</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="51">
-        <v>5</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="51">
-        <v>6</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="51">
-        <v>7</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="51">
-        <v>8</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="40"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="51">
-        <v>9</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="51">
-        <v>10</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="51">
-        <v>11</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="51">
-        <v>12</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="51">
-        <v>13</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-    </row>
-    <row r="21" spans="1:26" ht="26.25">
-      <c r="A21" s="51">
-        <v>14</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="51">
-        <v>15</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="51">
-        <v>16</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="51">
-        <v>17</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="51">
-        <v>18</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="51">
-        <v>19</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="51">
-        <v>20</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="51"/>
-      <c r="B28" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="51"/>
-      <c r="B29" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-    </row>
-    <row r="30" spans="1:26" ht="26.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="51"/>
-      <c r="B31" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="51"/>
-      <c r="B32" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="51">
-        <v>21</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="40"/>
-    </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="51">
-        <v>22</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="40"/>
-    </row>
-    <row r="35" spans="1:26" ht="26.25">
-      <c r="A35" s="51">
-        <v>23</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-    </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="51">
-        <v>24</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="40"/>
-    </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-    </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="65">
-        <v>25</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="40"/>
-    </row>
-    <row r="39" spans="1:26">
-      <c r="A39" s="65"/>
-      <c r="B39" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="40"/>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="65"/>
-      <c r="B40" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="40"/>
-    </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="S2:Z2"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A41:B41"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/盈亏分析模板.xlsx
+++ b/src/main/resources/盈亏分析模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbl\IdeaProjects\ExcelConvertTool\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA111B-8FDB-4793-B1B7-38D4A0FDCBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B212052F-1681-4C99-BDE8-4021E3E78B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{36972EAE-5B6C-493F-B4B4-6C859EF02C4F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <r>
       <rPr>
@@ -184,383 +184,819 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>社会保险费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>职工福利费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>办公费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>租赁费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>物业管理费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>水电费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>宽带费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>差旅费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>修理费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>劳动保护费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>折旧费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>业务宣传费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>技术服务费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>低值易耗品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>日常交通费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>燃料动力费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>职工教育经费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>保险费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>税金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>业务招待费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>招待礼品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>招待烟酒茶</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>招待餐费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>招待住宿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>其他招待</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>咨询费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>招聘服务费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>挂靠人员</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>费用合计</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>财务费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>手续费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Black"/>
+        <family val="1"/>
+      </rPr>
+      <t>利息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP Medium"/>
+        <family val="1"/>
+      </rPr>
+      <t>总计</t>
+    </r>
+  </si>
+  <si>
+    <t>{54010101}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020201}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020202}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020203}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020204}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020205}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020206}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{54020208}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020210}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020207}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{54020209}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020212}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020250}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5401020211}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560101}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560102}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560103}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560104}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560105}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560106}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560107}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560108}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560109}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560110}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560111}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560113}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560114}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560115}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560116}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560117}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560118}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560199}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56020101_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56020101_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56020101_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56020102_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56020103_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56020103_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56020103_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560202}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560203_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560203_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560203_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56020102_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56020102_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560204}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560205}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560206}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560207}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560208_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560208_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560208_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560209_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560209_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560209_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560210_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560210_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560210_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560214_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560214_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560214_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560215_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560215_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560215_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560216_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560216_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560216_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560221}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560219_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560219_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560219_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022201_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022201_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022201_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022203_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022203_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022203_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022204_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022204_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022204_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022205_01}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022205_05}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{56022205_06}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560299}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560302}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560303}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{sheji_xinchou}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{gongcheng_xinchou}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{54010102}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Black"/>
-        <family val="1"/>
-      </rPr>
-      <t>社会保险费</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010103}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>职工福利费</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{shichang_xinchou}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{caiwu_xinchou}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{renli_xinchou}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{zongjingban_xinchou}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{sheji_zhaodai}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{gongcheng_zhaodai}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 560223}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{560224}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{guding_heji}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{sheji_heji}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{54010109}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{shichang_zhaodai}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{caiwu_zhaodai}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{renli_zhaodai}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{zongjingban_zhaodai}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010111}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>办公费</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010105}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>租赁费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>物业管理费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>水电费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>宽带费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>差旅费</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010104}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>修理费</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010108}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>劳动保护费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>折旧费</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010110}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>业务宣传费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>技术服务费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>低值易耗品</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010112}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>日常交通费</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010106}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>燃料动力费</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010107}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>职工教育经费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>保险费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>税金</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>业务招待费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Black"/>
-        <family val="1"/>
-      </rPr>
-      <t>招待礼品</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Black"/>
-        <family val="1"/>
-      </rPr>
-      <t>招待烟酒茶</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Black"/>
-        <family val="1"/>
-      </rPr>
-      <t>招待餐费</t>
-    </r>
-  </si>
-  <si>
-    <t>{54010109}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Black"/>
-        <family val="1"/>
-      </rPr>
-      <t>招待住宿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Black"/>
-        <family val="1"/>
-      </rPr>
-      <t>其他招待</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>咨询费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>招聘服务费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>其他</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{54010150}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>挂靠人员</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>费用合计</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>财务费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Black"/>
-        <family val="1"/>
-      </rPr>
-      <t>手续费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Black"/>
-        <family val="1"/>
-      </rPr>
-      <t>利息</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK JP Medium"/>
-        <family val="1"/>
-      </rPr>
-      <t>总计</t>
-    </r>
-  </si>
-  <si>
-    <t>{54010101}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{shichang_heji}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{gongcheng_heji}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{caiwu_heji}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{renli_heji}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{zongjingban_heji}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +1129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +1156,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1088,11 +1521,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE61DE98-42CA-41A8-80A8-7A0CB055FEDA}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="1" t="s">
@@ -1144,7 +1584,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11" ht="42.75">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1152,360 +1592,502 @@
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="D3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="14"/>
+      <c r="D4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="14"/>
+      <c r="D5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4"/>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="14"/>
+      <c r="D6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>18</v>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="17"/>
+      <c r="D7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="18"/>
+      <c r="I7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>20</v>
+      <c r="B8" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="18"/>
+      <c r="D8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10"/>
+      <c r="B9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="10"/>
+      <c r="B10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="18"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="10"/>
+      <c r="B11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="18"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="17"/>
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>26</v>
+      <c r="B13" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="18"/>
+      <c r="D13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>28</v>
+      <c r="B14" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>30</v>
+      <c r="B15" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="20"/>
+      <c r="G15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>31</v>
+      <c r="B16" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="18"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>33</v>
+      <c r="B17" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>34</v>
+      <c r="B18" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>35</v>
+      <c r="B19" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="18"/>
+      <c r="D19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>37</v>
+      <c r="B20" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>39</v>
+      <c r="B21" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="25.5">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>41</v>
+      <c r="B22" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="20"/>
+      <c r="G22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>42</v>
+      <c r="B23" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1514,128 +2096,172 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="10"/>
+      <c r="B24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24" s="9"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" ht="42.75">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>44</v>
+      <c r="B25" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="18"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4"/>
-      <c r="B26" s="11" t="s">
-        <v>45</v>
+      <c r="B26" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="4"/>
-      <c r="B27" s="11" t="s">
-        <v>46</v>
+      <c r="B27" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="4"/>
-      <c r="B28" s="11" t="s">
-        <v>47</v>
+      <c r="B28" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="13"/>
+      <c r="D28" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
-      <c r="B29" s="11" t="s">
-        <v>49</v>
+      <c r="B29" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="13"/>
+      <c r="G29" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
-      <c r="B30" s="11" t="s">
-        <v>50</v>
+      <c r="B30" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="6">
         <v>21</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="17"/>
+      <c r="B31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1643,16 +2269,18 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="18"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="6">
         <v>22</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="5"/>
+      <c r="B32" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1660,33 +2288,39 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="18"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="6">
         <v>23</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="18"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="6">
         <v>24</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>55</v>
+      <c r="B34" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1696,87 +2330,105 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="18"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="18"/>
+      <c r="A35" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="17"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="6">
         <v>25</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="18"/>
+      <c r="B36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="4"/>
-      <c r="B37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="15"/>
+      <c r="B37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="18"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="4"/>
-      <c r="B38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="13"/>
+      <c r="B38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="18"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="18"/>
+      <c r="A39" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="17"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="D40" s="21"/>
+      <c r="D40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1785,5 +2437,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>